--- a/all_annotated/SXC_Q1_2014_3.xlsx
+++ b/all_annotated/SXC_Q1_2014_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tmandapati/Desktop/VIP/Annotate/SubjECTive-QA/Tarun-annotations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hp/Desktop/SubjECTive-QA/all_annotated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE38B9D7-58F4-9043-94B1-947679FB92DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5455213F-523A-0D49-A44E-0AEFB71FD389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34100" yWindow="2740" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
   <si>
     <t>Asker</t>
   </si>
@@ -158,12 +158,6 @@
   </si>
   <si>
     <t>First of all, I don't have a view on met coal. I'm not that good. And even Mike Hardesty who works for me, who is that good, I mean, his crystal ball is not that great either. And so our view is no time like the present, might as well just get on with it. We don't really have -- we don't have a strategy which could make us successful. We are subscale. We have all the challenges. In other words -- and we won't -- it's not like we were printing cash when met coal prices were high. So as we think about it, now that the tax sharing agreement is over, yes, it's a tough time to sell the business, it's an even more difficult time for us to be in the business. And so we felt like it will be the right time to just get moving. And to the extent that we want to -- if we have a view on met coal, it's part of the transaction, some form of the consideration as an upside for met coal, fine. I'm flexible on that. But I just don't think staying in a business where you don't have a recipe for success, and to wait for commodity prices to rise is good strategy for us.</t>
-  </si>
-  <si>
-    <t>Got it. And then in terms of buying the balance of the JVs, is there a financing plan for that? Or I did not understand that fully?</t>
-  </si>
-  <si>
-    <t>Could you clarify the question a bit?</t>
   </si>
   <si>
     <t>The -- was it $325 million transaction?</t>
@@ -581,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="163" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1106,7 +1100,7 @@
         <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
         <v>46</v>
@@ -1130,7 +1124,7 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1138,7 +1132,7 @@
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
         <v>48</v>
@@ -1162,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1179,10 +1173,10 @@
         <v>51</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1191,24 +1185,24 @@
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1220,21 +1214,21 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
         <v>55</v>
@@ -1252,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -1263,10 +1257,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
         <v>57</v>
@@ -1295,10 +1289,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
         <v>59</v>
@@ -1307,7 +1301,7 @@
         <v>60</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -1322,24 +1316,24 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
         <v>61</v>
       </c>
-      <c r="D24" t="s">
-        <v>62</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -1354,18 +1348,18 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
         <v>63</v>
@@ -1380,44 +1374,12 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>2</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
         <v>2</v>
       </c>
     </row>
